--- a/data/trans_dic/P16A09-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P16A09-Dificultad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.05180773509457357</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.08592985421659502</v>
+        <v>0.08592985421659501</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.06615964041160537</v>
@@ -697,7 +697,7 @@
         <v>0.03412336569135462</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.06288584614376781</v>
+        <v>0.0628858461437678</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03574210249675122</v>
+        <v>0.03483070220909683</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01320190904117941</v>
+        <v>0.01273999906270811</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.008798814167122818</v>
+        <v>0.008487564275841655</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.02124413541795656</v>
+        <v>0.01975063184850995</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05981423853916874</v>
+        <v>0.06054373205265946</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05251365571424424</v>
+        <v>0.0522254505922949</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0403425580248687</v>
+        <v>0.03981522638026867</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.06755014193239207</v>
+        <v>0.06773851794427808</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05449891889475702</v>
+        <v>0.05579657207237951</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0353251690049742</v>
+        <v>0.03569904719735733</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02774114022450552</v>
+        <v>0.0263531027007425</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.05076258482247777</v>
+        <v>0.05210890556684551</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06815336514719665</v>
+        <v>0.07066505087748941</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03191572818106912</v>
+        <v>0.03178463637837313</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02221770065702845</v>
+        <v>0.02250265688387799</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05328996561842776</v>
+        <v>0.05243973146416728</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09553376027208239</v>
+        <v>0.09533030171096127</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.08376781928805829</v>
+        <v>0.08211031267537952</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06748480184435236</v>
+        <v>0.06747775689117905</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1063967449848095</v>
+        <v>0.10260755192662</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07922109494649622</v>
+        <v>0.08024245894416303</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0536520188727474</v>
+        <v>0.0535804475913162</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.042777454051545</v>
+        <v>0.04263376453391116</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.07595054799483321</v>
+        <v>0.07617202884364477</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.02414015875307276</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.04489149966852742</v>
+        <v>0.04489149966852743</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01955694687652976</v>
+        <v>0.01927147364159999</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.008328703368183537</v>
+        <v>0.008357886463242913</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.007212925640397406</v>
+        <v>0.007551473087231459</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01743872258770811</v>
+        <v>0.01712224663513559</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03472834116099999</v>
+        <v>0.0355414967862715</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04133967420732421</v>
+        <v>0.04008356593359619</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02344564298942541</v>
+        <v>0.02193035261075991</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05115140487538662</v>
+        <v>0.05095201518492434</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02952373484306923</v>
+        <v>0.03019560035560978</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02714815874321397</v>
+        <v>0.02747578692101089</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01739988609579206</v>
+        <v>0.01759647477654621</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03755586272216554</v>
+        <v>0.0378039490724567</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0389093525131578</v>
+        <v>0.03943680732645213</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02507940904124407</v>
+        <v>0.02518521392741119</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02261971512010416</v>
+        <v>0.02281234625485367</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0366885744673868</v>
+        <v>0.03624884283086837</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.06222464355663412</v>
+        <v>0.06391536092181144</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06973344206184473</v>
+        <v>0.06665667928386471</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0467551981923929</v>
+        <v>0.04779580829516536</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.07445912206478024</v>
+        <v>0.07395605355424593</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04652815774971883</v>
+        <v>0.0466108984238043</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.04425573891489686</v>
+        <v>0.04420592674665687</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03240798739657941</v>
+        <v>0.03258890391185569</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.05324209783367841</v>
+        <v>0.05291853006180694</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.02252095007178185</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.02898553959406364</v>
+        <v>0.02898553959406365</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.009867333603766813</v>
+        <v>0.009348821922295343</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01125008960791567</v>
+        <v>0.01165632870953734</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.005733493913265616</v>
+        <v>0.005796774568660038</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.005695329046923494</v>
+        <v>0.005493126795802623</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02366270095452962</v>
+        <v>0.02281816608275377</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03893928405677664</v>
+        <v>0.03918734087844815</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02266981019412344</v>
+        <v>0.02204112088415673</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.03861241470458355</v>
+        <v>0.03789342306562478</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01833310758813754</v>
+        <v>0.0185194158480601</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02812907492321217</v>
+        <v>0.02782284906183216</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01621805078985287</v>
+        <v>0.01568483332310164</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02364826427819522</v>
+        <v>0.02344597723791733</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02494464110639948</v>
+        <v>0.02435441574256043</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03214718078233948</v>
+        <v>0.03044085819746319</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02262640753292935</v>
+        <v>0.0219763736721884</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01767940078819785</v>
+        <v>0.01676937784462133</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04725851832828866</v>
+        <v>0.04664827858763568</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.0716110672077771</v>
+        <v>0.070650976732654</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.0488408405473349</v>
+        <v>0.04978027078975226</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06276939164636107</v>
+        <v>0.06234704144518702</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03228701462457544</v>
+        <v>0.03149886812866937</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04651476011011348</v>
+        <v>0.04776768092069492</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03188697994148272</v>
+        <v>0.03076658096288135</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03686409183361273</v>
+        <v>0.03633056472213263</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.01401318081600601</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.0227664557792121</v>
+        <v>0.02276645577921209</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02150380630788825</v>
+        <v>0.0226437863912332</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01748276608938309</v>
+        <v>0.01840179536686282</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.004873821240475213</v>
+        <v>0.003651186258723886</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.008808210726783419</v>
+        <v>0.008231136486524751</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01423090689905931</v>
+        <v>0.01426447105721781</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03882420809468541</v>
+        <v>0.03996975968622785</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.006824690395229746</v>
+        <v>0.006825629283188434</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.02301538017944091</v>
+        <v>0.02300607465597968</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02290244346254193</v>
+        <v>0.02247000382127302</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.03263545749774985</v>
+        <v>0.03443271271482996</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.00781975177891101</v>
+        <v>0.007095416367689866</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01758039737523045</v>
+        <v>0.01745659185908487</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06252801240578565</v>
+        <v>0.06165965159831037</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05789149784802241</v>
+        <v>0.05708879754766272</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0242615058107689</v>
+        <v>0.0251468638194632</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.023434339858581</v>
+        <v>0.02347010686101823</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05537416243663205</v>
+        <v>0.05574761431726996</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.09216486924527184</v>
+        <v>0.08899745578531097</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0317956545945765</v>
+        <v>0.03174507640342605</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.04036126303277491</v>
+        <v>0.04110345963143167</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05172914679473999</v>
+        <v>0.04966713567592754</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.06356529207572352</v>
+        <v>0.0628321504258601</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02486329625596849</v>
+        <v>0.0231770443159304</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.02889738292413486</v>
+        <v>0.02924184391780449</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.03783236827746461</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.05453873787088886</v>
+        <v>0.05453873787088885</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.03959347060168722</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02443295177881695</v>
+        <v>0.0237229846245589</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01619052560891723</v>
+        <v>0.0161981956894062</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.009694506989216714</v>
+        <v>0.009660854261924612</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01528913104462461</v>
+        <v>0.01507866689381766</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04182968586726309</v>
+        <v>0.04178541810710574</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05044959447628139</v>
+        <v>0.05069049233188913</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03086946884159311</v>
+        <v>0.03151724717337072</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.04855325063617869</v>
+        <v>0.04875967590806544</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03499616808328712</v>
+        <v>0.03465994525880394</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.03517546680485394</v>
+        <v>0.03519264430685027</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.02212416619398041</v>
+        <v>0.02202316530064485</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.03344484553706461</v>
+        <v>0.0337171665087748</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0356135710426644</v>
+        <v>0.03542776734324838</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02677874787770197</v>
+        <v>0.0266838088438345</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01738188701534061</v>
+        <v>0.01755314251937353</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0239007057338688</v>
+        <v>0.02365706874060292</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05772684267945218</v>
+        <v>0.05670135846916115</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.06816459661175442</v>
+        <v>0.06634359563846674</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.04413326464948049</v>
+        <v>0.04530388220043345</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.06090167167996301</v>
+        <v>0.06089832576058683</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.04457719813287901</v>
+        <v>0.04451245545674085</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.04458344452969519</v>
+        <v>0.04504150517645775</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02966986370922274</v>
+        <v>0.02983510619882485</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.04092660634350832</v>
+        <v>0.0413164129904888</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>20878</v>
+        <v>20346</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>13728</v>
+        <v>13247</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>9925</v>
+        <v>9574</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>10595</v>
+        <v>9850</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>55169</v>
+        <v>55841</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>58485</v>
+        <v>58164</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>50814</v>
+        <v>50150</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>42123</v>
+        <v>42240</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>82101</v>
+        <v>84056</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>76074</v>
+        <v>76879</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>66234</v>
+        <v>62920</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>56972</v>
+        <v>58483</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>39811</v>
+        <v>41278</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>33187</v>
+        <v>33050</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>25061</v>
+        <v>25383</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>26578</v>
+        <v>26154</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>88114</v>
+        <v>87926</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>93294</v>
+        <v>91448</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>85001</v>
+        <v>84992</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>66347</v>
+        <v>63984</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>119345</v>
+        <v>120883</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>115541</v>
+        <v>115387</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>102134</v>
+        <v>101791</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>85241</v>
+        <v>85489</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>21080</v>
+        <v>20773</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>8117</v>
+        <v>8145</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6555</v>
+        <v>6863</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>16721</v>
+        <v>16417</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>36727</v>
+        <v>37586</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>45150</v>
+        <v>43778</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>23597</v>
+        <v>22072</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>57046</v>
+        <v>56824</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>63046</v>
+        <v>64481</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>56107</v>
+        <v>56784</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>33326</v>
+        <v>33703</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>77894</v>
+        <v>78408</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>41940</v>
+        <v>42509</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>24441</v>
+        <v>24544</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>20557</v>
+        <v>20732</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>35178</v>
+        <v>34757</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>65805</v>
+        <v>67593</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>76161</v>
+        <v>72801</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>47058</v>
+        <v>48105</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>83040</v>
+        <v>82479</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>99358</v>
+        <v>99534</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>91464</v>
+        <v>91361</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>62071</v>
+        <v>62418</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>110428</v>
+        <v>109757</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>11057</v>
+        <v>10476</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9947</v>
+        <v>10306</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4723</v>
+        <v>4775</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>5960</v>
+        <v>5748</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>23519</v>
+        <v>22680</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>34026</v>
+        <v>34243</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>17480</v>
+        <v>16995</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>40439</v>
+        <v>39686</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>38766</v>
+        <v>39160</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>49451</v>
+        <v>48913</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>25865</v>
+        <v>25014</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>49514</v>
+        <v>49091</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>27952</v>
+        <v>27291</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>28424</v>
+        <v>26915</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>18639</v>
+        <v>18103</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>18501</v>
+        <v>17549</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>46972</v>
+        <v>46366</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>62576</v>
+        <v>61737</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>37659</v>
+        <v>38384</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>65739</v>
+        <v>65297</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>68271</v>
+        <v>66605</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>81773</v>
+        <v>83976</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>50854</v>
+        <v>49067</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>77186</v>
+        <v>76069</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>9617</v>
+        <v>10126</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>8794</v>
+        <v>9257</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2470</v>
+        <v>1850</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>8596</v>
+        <v>8033</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4855</v>
+        <v>4866</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>17464</v>
+        <v>17980</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>3342</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>20893</v>
+        <v>20884</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>18055</v>
+        <v>17714</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>31097</v>
+        <v>32809</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>7792</v>
+        <v>7070</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>33116</v>
+        <v>32883</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>27963</v>
+        <v>27574</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>29121</v>
+        <v>28717</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>12293</v>
+        <v>12742</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>22870</v>
+        <v>22905</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>18891</v>
+        <v>19019</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>41458</v>
+        <v>40034</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>15570</v>
+        <v>15546</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>36639</v>
+        <v>37312</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>40781</v>
+        <v>39155</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>60568</v>
+        <v>59870</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>24774</v>
+        <v>23094</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>54434</v>
+        <v>55083</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>78914</v>
+        <v>76621</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>55073</v>
+        <v>55099</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>32644</v>
+        <v>32531</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>53206</v>
+        <v>52473</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>138664</v>
+        <v>138517</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>178064</v>
+        <v>178914</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>108870</v>
+        <v>111155</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>179351</v>
+        <v>180114</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>229042</v>
+        <v>226842</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>243805</v>
+        <v>243924</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>152526</v>
+        <v>151829</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>239929</v>
+        <v>241883</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>115025</v>
+        <v>114425</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>91089</v>
+        <v>90766</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>58530</v>
+        <v>59106</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>83174</v>
+        <v>82326</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>191363</v>
+        <v>187963</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>240590</v>
+        <v>234163</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>155649</v>
+        <v>159777</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>224965</v>
+        <v>224953</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>291748</v>
+        <v>291324</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>309012</v>
+        <v>312187</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>204546</v>
+        <v>205685</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>293603</v>
+        <v>296399</v>
       </c>
     </row>
     <row r="24">
